--- a/tables/Info.xlsx
+++ b/tables/Info.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="74">
   <si>
     <t>序号</t>
   </si>
@@ -28,11 +28,11 @@
   </si>
   <si>
     <t>英文名</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>name</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -49,7 +49,7 @@
       </rPr>
       <t>nlishName</t>
     </r>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -66,19 +66,168 @@
       </rPr>
       <t>d</t>
     </r>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>描述</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>desc</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>房间b</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>前置描述</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>preDesc</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>书本</t>
+  </si>
+  <si>
+    <t>Book</t>
+  </si>
+  <si>
+    <t>日志？笔记？手稿？疯言？</t>
+  </si>
+  <si>
+    <t>人物的知识Knowledge上升2个级别。若人物失去这书本，其知识Knowledge下降2个级别。</t>
+  </si>
+  <si>
+    <t>噬咬</t>
+  </si>
+  <si>
+    <t>Bite</t>
+  </si>
+  <si>
+    <t>咆哮、死亡气息、痛楚、黑暗、虚弱人物突然遭某物噬咬。该东西速即消失于暗处。这是一个针对玩家人物的4点力量Might袭击，由玩家右方的另一玩家代掷4颗骰。若玩家胜出这比拼，这咭牌即无效果。否则如常受到肉体损伤physical damage。这咭牌并非物件，保留这牌只作计算已翻开的预兆牌Omen card数目。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>水晶球</t>
+  </si>
+  <si>
+    <t>Crystal Ball</t>
+  </si>
+  <si>
+    <t>琉璃上的朦胧影象，当玩家使用水晶球时，依知识Knowledge进行能力考验。骰数总和等于或大于4，人物窥探出未来。玩家可检查物品牌Item card或事件牌Event card的牌叠，从中抽起1张咭牌放在一旁。重新将牌叠洗混后，再把抽起的咭牌放回牌叠顶。骰数总和是1至3，人物只觉眼花撩乱。人物的神志Sanity下降1个级别。骰数总和是0，人物看到地狱景况。人物的神志Sanity下降2个级别。</t>
+  </si>
+  <si>
+    <t>脏狗</t>
+  </si>
+  <si>
+    <t>Dog</t>
+  </si>
+  <si>
+    <t>看似友善的癞皮狗</t>
+  </si>
+  <si>
+    <t>人物的力量Might及神志Sanity上升1个级别。若人物失去这狗的伴随，其力量Might及神志Sanity下降1个级别。在玩家回合中，人物可差这动物走往最多6格外的一个房间，并随即返回人物身边。其间这动物可捡拾/携带/丢弃1件物件。这动物不可使用单向的通道。敌对的人物/怪物不会对牠的移动构成妨碍。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>女孩</t>
+  </si>
+  <si>
+    <t>Girl</t>
+  </si>
+  <si>
+    <t>遭困的孤单女孩</t>
+  </si>
+  <si>
+    <t>人物的神志Sanity及知识Knowledge上升1个级别。若人物失去这小女孩的伴随，其神志Sanity及知识Knowledge下降1个级别。</t>
+  </si>
+  <si>
+    <t>圣符</t>
+  </si>
+  <si>
+    <t>Holy Symbol</t>
+  </si>
+  <si>
+    <t>俗世风浪中的平静</t>
+  </si>
+  <si>
+    <t>人物的神志Sanity上升2个级别。若人物失去这圣符，其神志Sanity下降2个级别。</t>
+  </si>
+  <si>
+    <t>疯汉</t>
+  </si>
+  <si>
+    <t>Madman</t>
+  </si>
+  <si>
+    <t>乱语流唾的疯子</t>
+  </si>
+  <si>
+    <t>人物的力量Might上升2个级别。神志Sanity下降1个级别。若人物失去这疯癫汉的伴随，其力量Might下降2个级别。神志Sanity上升1个级别。</t>
+  </si>
+  <si>
+    <t>面具</t>
+  </si>
+  <si>
+    <t>Mask</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>掩藏意图的朴实面具</t>
+  </si>
+  <si>
+    <t>当玩家使用这面具时，以神志Sanity进行能力考验。骰数总和等于或大于4，人物可把面具带上/除下。只有先把面具带上后，玩家方可除下面具。若玩家带上这面具，知识Knowledge上升2个级别，神志Sanity则下降2个级别。若玩家除下这面具，知识Knowledge下降2个级别，神志Sanity则上升2个级别。骰数总和是0至3，这回合人物无法带上或除下面具。</t>
+  </si>
+  <si>
+    <t>徽章</t>
+  </si>
+  <si>
+    <t>Medallion</t>
+  </si>
+  <si>
+    <t>五芒星状的大徽章人物不受五芒星堂Pentagram Chamber、地窖Crypt及墓园Graveyard的影响。即人物通过这三个房间时，无需进行能力考验。</t>
+  </si>
+  <si>
+    <t>指环</t>
+  </si>
+  <si>
+    <t>Ring</t>
+  </si>
+  <si>
+    <t>刻有不解铭文的破旧指环</t>
+  </si>
+  <si>
+    <t>人物在其回合中可选择以神志Sanity作袭击，败方所受到伤害即为精神损伤mental damage。在面对没有神志Sanity的目标时，这能力无效。</t>
+  </si>
+  <si>
+    <t>颅骨</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Skull</t>
+  </si>
+  <si>
+    <t>破裂断齿的头颅骨</t>
+  </si>
+  <si>
+    <t>每当人物受到精神损伤mental damage时，玩家可选择将所有伤害转化成肉体损伤physical damage。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>长矛</t>
+  </si>
+  <si>
+    <t>Spear</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>充有不明力量的凶器</t>
+  </si>
+  <si>
+    <t>人物在其回合中选择以力量Might作袭击时，可多掷2颗游戏骰(骰子数目最多8颗)。人物在使用这武器作袭击时，不可使用其他武器。</t>
+  </si>
+  <si>
+    <r>
+      <t>0</t>
     </r>
     <r>
       <rPr>
@@ -89,13 +238,23 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>uff</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>b</t>
+      <t>_-4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>0</t>
     </r>
     <r>
       <rPr>
@@ -106,173 +265,127 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>uff</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>前置描述</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>preDesc</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>dice+4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>书本</t>
-  </si>
-  <si>
-    <t>Book</t>
-  </si>
-  <si>
-    <t>日志？笔记？手稿？疯言？</t>
-  </si>
-  <si>
-    <t>人物的知识Knowledge上升2个级别。若人物失去这书本，其知识Knowledge下降2个级别。</t>
-  </si>
-  <si>
-    <t>噬咬</t>
-  </si>
-  <si>
-    <t>Bite</t>
-  </si>
-  <si>
-    <t>咆哮、死亡气息、痛楚、黑暗、虚弱人物突然遭某物噬咬。该东西速即消失于暗处。这是一个针对玩家人物的4点力量Might袭击，由玩家右方的另一玩家代掷4颗骰。若玩家胜出这比拼，这咭牌即无效果。否则如常受到肉体损伤physical damage。这咭牌并非物件，保留这牌只作计算已翻开的预兆牌Omen card数目。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>水晶球</t>
-  </si>
-  <si>
-    <t>Crystal Ball</t>
-  </si>
-  <si>
-    <t>琉璃上的朦胧影象，当玩家使用水晶球时，依知识Knowledge进行能力考验。骰数总和等于或大于4，人物窥探出未来。玩家可检查物品牌Item card或事件牌Event card的牌叠，从中抽起1张咭牌放在一旁。重新将牌叠洗混后，再把抽起的咭牌放回牌叠顶。骰数总和是1至3，人物只觉眼花撩乱。人物的神志Sanity下降1个级别。骰数总和是0，人物看到地狱景况。人物的神志Sanity下降2个级别。</t>
-  </si>
-  <si>
-    <t>脏狗</t>
-  </si>
-  <si>
-    <t>Dog</t>
-  </si>
-  <si>
-    <t>看似友善的癞皮狗</t>
-  </si>
-  <si>
-    <t>人物的力量Might及神志Sanity上升1个级别。若人物失去这狗的伴随，其力量Might及神志Sanity下降1个级别。在玩家回合中，人物可差这动物走往最多6格外的一个房间，并随即返回人物身边。其间这动物可捡拾/携带/丢弃1件物件。这动物不可使用单向的通道。敌对的人物/怪物不会对牠的移动构成妨碍。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>女孩</t>
-  </si>
-  <si>
-    <t>Girl</t>
-  </si>
-  <si>
-    <t>遭困的孤单女孩</t>
-  </si>
-  <si>
-    <t>人物的神志Sanity及知识Knowledge上升1个级别。若人物失去这小女孩的伴随，其神志Sanity及知识Knowledge下降1个级别。</t>
-  </si>
-  <si>
-    <t>圣符</t>
-  </si>
-  <si>
-    <t>Holy Symbol</t>
-  </si>
-  <si>
-    <t>俗世风浪中的平静</t>
-  </si>
-  <si>
-    <t>人物的神志Sanity上升2个级别。若人物失去这圣符，其神志Sanity下降2个级别。</t>
-  </si>
-  <si>
-    <t>疯汉</t>
-  </si>
-  <si>
-    <t>Madman</t>
-  </si>
-  <si>
-    <t>乱语流唾的疯子</t>
-  </si>
-  <si>
-    <t>人物的力量Might上升2个级别。神志Sanity下降1个级别。若人物失去这疯癫汉的伴随，其力量Might下降2个级别。神志Sanity上升1个级别。</t>
-  </si>
-  <si>
-    <t>面具</t>
-  </si>
-  <si>
-    <t>Mask</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>掩藏意图的朴实面具</t>
-  </si>
-  <si>
-    <t>当玩家使用这面具时，以神志Sanity进行能力考验。骰数总和等于或大于4，人物可把面具带上/除下。只有先把面具带上后，玩家方可除下面具。若玩家带上这面具，知识Knowledge上升2个级别，神志Sanity则下降2个级别。若玩家除下这面具，知识Knowledge下降2个级别，神志Sanity则上升2个级别。骰数总和是0至3，这回合人物无法带上或除下面具。</t>
-  </si>
-  <si>
-    <t>徽章</t>
-  </si>
-  <si>
-    <t>Medallion</t>
-  </si>
-  <si>
-    <t>五芒星状的大徽章人物不受五芒星堂Pentagram Chamber、地窖Crypt及墓园Graveyard的影响。即人物通过这三个房间时，无需进行能力考验。</t>
-  </si>
-  <si>
-    <t>指环</t>
-  </si>
-  <si>
-    <t>Ring</t>
-  </si>
-  <si>
-    <t>刻有不解铭文的破旧指环</t>
-  </si>
-  <si>
-    <t>人物在其回合中可选择以神志Sanity作袭击，败方所受到伤害即为精神损伤mental damage。在面对没有神志Sanity的目标时，这能力无效。</t>
-  </si>
-  <si>
-    <t>颅骨</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Skull</t>
-  </si>
-  <si>
-    <t>破裂断齿的头颅骨</t>
-  </si>
-  <si>
-    <t>每当人物受到精神损伤mental damage时，玩家可选择将所有伤害转化成肉体损伤physical damage。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>长矛</t>
-  </si>
-  <si>
-    <t>Spear</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>充有不明力量的凶器</t>
-  </si>
-  <si>
-    <t>人物在其回合中选择以力量Might作袭击时，可多掷2颗游戏骰(骰子数目最多8颗)。人物在使用这武器作袭击时，不可使用其他武器。</t>
+      <t>_-5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <t>0_1|1_1|2_2</t>
+  </si>
+  <si>
+    <t>拥有数值</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>失去数值</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>buff</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>deBuff</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>6_4</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>6_0</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0_1|1_1|2_1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0_-1|1_-1|2_-1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>_1</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>_-3</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0_2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0_3</t>
+  </si>
+  <si>
+    <t>0_4</t>
+  </si>
+  <si>
+    <t>2_-2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2_-3</t>
+  </si>
+  <si>
+    <t>2_-4</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -321,14 +434,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="1">
+  <dxfs count="2">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor indexed="10"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -607,11 +727,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F14"/>
+  <dimension ref="A1:G14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G16" sqref="G16"/>
+      <selection pane="bottomLeft" activeCell="E12" sqref="E12:E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -619,11 +739,12 @@
     <col min="1" max="1" width="7.375" style="1" customWidth="1"/>
     <col min="2" max="3" width="13.25" style="1" customWidth="1"/>
     <col min="4" max="4" width="9" style="1"/>
-    <col min="5" max="6" width="13.25" style="1" customWidth="1"/>
-    <col min="7" max="16384" width="9" style="1"/>
+    <col min="5" max="5" width="13.375" style="1" customWidth="1"/>
+    <col min="6" max="7" width="13.25" style="1" customWidth="1"/>
+    <col min="8" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -634,16 +755,19 @@
         <v>2</v>
       </c>
       <c r="D1" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>5</v>
       </c>
@@ -654,216 +778,293 @@
         <v>4</v>
       </c>
       <c r="D2" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="F2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F2" s="2" t="s">
+      <c r="G2" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G3" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+        <v>15</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+        <v>18</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G6" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C6" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G7" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C7" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G8" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="C8" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="G9" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="C9" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="G10" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="C10" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+        <v>41</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="G12" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="C12" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="G13" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="C13" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="G14" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="C14" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>57</v>
-      </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="A1:XFD1048576">
+  <phoneticPr fontId="2" type="noConversion"/>
+  <conditionalFormatting sqref="A1:C1048576 F1:XFD1048576">
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="notEqual">
+      <formula>INDIRECT("Dummy_for_Comparison1!"&amp;ADDRESS(ROW(),COLUMN()))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D1:E1048576">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="notEqual">
       <formula>INDIRECT("Dummy_for_Comparison1!"&amp;ADDRESS(ROW(),COLUMN()))</formula>
     </cfRule>

--- a/tables/Info.xlsx
+++ b/tables/Info.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="88">
   <si>
     <t>序号</t>
   </si>
@@ -28,11 +28,11 @@
   </si>
   <si>
     <t>英文名</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>name</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -49,7 +49,7 @@
       </rPr>
       <t>nlishName</t>
     </r>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -66,23 +66,23 @@
       </rPr>
       <t>d</t>
     </r>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>描述</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>desc</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>前置描述</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>preDesc</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>书本</t>
@@ -103,19 +103,12 @@
     <t>Bite</t>
   </si>
   <si>
-    <t>咆哮、死亡气息、痛楚、黑暗、虚弱人物突然遭某物噬咬。该东西速即消失于暗处。这是一个针对玩家人物的4点力量Might袭击，由玩家右方的另一玩家代掷4颗骰。若玩家胜出这比拼，这咭牌即无效果。否则如常受到肉体损伤physical damage。这咭牌并非物件，保留这牌只作计算已翻开的预兆牌Omen card数目。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>水晶球</t>
   </si>
   <si>
     <t>Crystal Ball</t>
   </si>
   <si>
-    <t>琉璃上的朦胧影象，当玩家使用水晶球时，依知识Knowledge进行能力考验。骰数总和等于或大于4，人物窥探出未来。玩家可检查物品牌Item card或事件牌Event card的牌叠，从中抽起1张咭牌放在一旁。重新将牌叠洗混后，再把抽起的咭牌放回牌叠顶。骰数总和是1至3，人物只觉眼花撩乱。人物的神志Sanity下降1个级别。骰数总和是0，人物看到地狱景况。人物的神志Sanity下降2个级别。</t>
-  </si>
-  <si>
     <t>脏狗</t>
   </si>
   <si>
@@ -125,10 +118,6 @@
     <t>看似友善的癞皮狗</t>
   </si>
   <si>
-    <t>人物的力量Might及神志Sanity上升1个级别。若人物失去这狗的伴随，其力量Might及神志Sanity下降1个级别。在玩家回合中，人物可差这动物走往最多6格外的一个房间，并随即返回人物身边。其间这动物可捡拾/携带/丢弃1件物件。这动物不可使用单向的通道。敌对的人物/怪物不会对牠的移动构成妨碍。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>女孩</t>
   </si>
   <si>
@@ -169,15 +158,12 @@
   </si>
   <si>
     <t>Mask</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>掩藏意图的朴实面具</t>
   </si>
   <si>
-    <t>当玩家使用这面具时，以神志Sanity进行能力考验。骰数总和等于或大于4，人物可把面具带上/除下。只有先把面具带上后，玩家方可除下面具。若玩家带上这面具，知识Knowledge上升2个级别，神志Sanity则下降2个级别。若玩家除下这面具，知识Knowledge下降2个级别，神志Sanity则上升2个级别。骰数总和是0至3，这回合人物无法带上或除下面具。</t>
-  </si>
-  <si>
     <t>徽章</t>
   </si>
   <si>
@@ -200,7 +186,7 @@
   </si>
   <si>
     <t>颅骨</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Skull</t>
@@ -210,14 +196,14 @@
   </si>
   <si>
     <t>每当人物受到精神损伤mental damage时，玩家可选择将所有伤害转化成肉体损伤physical damage。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>长矛</t>
   </si>
   <si>
     <t>Spear</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>充有不明力量的凶器</t>
@@ -226,93 +212,32 @@
     <t>人物在其回合中选择以力量Might作袭击时，可多掷2颗游戏骰(骰子数目最多8颗)。人物在使用这武器作袭击时，不可使用其他武器。</t>
   </si>
   <si>
-    <r>
-      <t>0</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>_-4</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t/>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>0</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>_-5</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t/>
-    </r>
-  </si>
-  <si>
-    <t>0_1|1_1|2_2</t>
-  </si>
-  <si>
-    <t>拥有数值</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>失去数值</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>buff</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>deBuff</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>6_4</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>6_0</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>0_1|1_1|2_1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>0_-1|1_-1|2_-1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -329,7 +254,7 @@
       </rPr>
       <t>_1</t>
     </r>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -346,46 +271,155 @@
       </rPr>
       <t>_-3</t>
     </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>0_2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>0_3</t>
-  </si>
-  <si>
-    <t>0_4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3_2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3_-2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>canUse</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>考验ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>examID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>这是一个针对玩家人物的4点力量Might袭击，由玩家右方的另一玩家代掷4颗骰。若玩家胜出这比拼，这咭牌即无效果。否则如常受到肉体损伤physical damage。这咭牌并非物件，保留这牌只作计算已翻开的预兆牌Omen card数目。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>咆哮、死亡气息、痛楚、黑暗、虚弱人物突然遭某物噬咬。该东西速即消失于暗处。</t>
+  </si>
+  <si>
+    <t>琉璃上的朦胧影象</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1_-1|2_-1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1_1|2_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2_1|3_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2_-1|3_-1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2_2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>2_-2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>2_-3</t>
-  </si>
-  <si>
-    <t>2_-4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1_2|2_-1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1_-2|2_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0_0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>_0</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>_0</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>skill</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>考验时机：0不考验，1拿到时，2使用时</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>当玩家使用水晶球时，依知识Knowledge进行能力考验。骰数总和等于或大于4，人物窥探出未来。玩家可检查物品牌Item card或事件牌Event card的牌叠，从中抽起1张咭牌放在一旁。重新将牌叠洗混后，再把抽起的咭牌放回牌叠顶。骰数总和是1至3，人物只觉眼花撩乱。人物的神志Sanity下降1个级别。骰数总和是0，人物看到地狱景况。人物的神志Sanity下降2个级别。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>拥有数值：0速度，1力量，2神志，3知识</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主动效果数值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>skillNum</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>人物的力量Might及神志Sanity上升1个级别。若人物失去这狗的伴随，其力量Might及神志Sanity下降1个级别。在玩家回合中，人物可差这动物走往最多6格外的一个房间，并随即返回人物身边。其间这动物可捡拾/携带/丢弃1件物件。这动物不可使用单向的通道。敌对的人物/怪物不会对牠的移动构成妨碍。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>当玩家使用这面具时，以神志Sanity进行能力考验。骰数总和等于或大于4，人物可把面具带上/除下。只有先把面具带上后，玩家方可除下面具。若玩家带上这面具，知识Knowledge上升2个级别，神志Sanity则下降2个级别。若玩家除下这面具，知识Knowledge下降2个级别，神志Sanity则上升2个级别。骰数总和是0至3，这回合人物无法带上或除下面具。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主动效果（如果需要考验，则考验决定是否可使用）：0无主动，1看牌堆，选择N张置顶，2用狗，3用面具，4以神志攻击，5物理转精神，6力量攻击加成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -434,7 +468,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -727,11 +761,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G14"/>
+  <dimension ref="A1:K14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E12" sqref="E12:E14"/>
+      <selection pane="bottomLeft" activeCell="K8" sqref="K8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -739,12 +773,12 @@
     <col min="1" max="1" width="7.375" style="1" customWidth="1"/>
     <col min="2" max="3" width="13.25" style="1" customWidth="1"/>
     <col min="4" max="4" width="9" style="1"/>
-    <col min="5" max="5" width="13.375" style="1" customWidth="1"/>
-    <col min="6" max="7" width="13.25" style="1" customWidth="1"/>
-    <col min="8" max="16384" width="9" style="1"/>
+    <col min="5" max="9" width="13.375" style="1" customWidth="1"/>
+    <col min="10" max="11" width="13.25" style="1" customWidth="1"/>
+    <col min="12" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -755,19 +789,31 @@
         <v>2</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>58</v>
+        <v>82</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="F1" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="K1" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>5</v>
       </c>
@@ -778,19 +824,31 @@
         <v>4</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="F2" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="J2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="K2" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -801,19 +859,31 @@
         <v>11</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="F3" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="F3" s="2">
+        <v>0</v>
+      </c>
+      <c r="G3" s="2">
+        <v>0</v>
+      </c>
+      <c r="H3" s="2">
+        <v>0</v>
+      </c>
+      <c r="I3" s="2">
+        <v>-1</v>
+      </c>
+      <c r="J3" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="K3" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -824,247 +894,385 @@
         <v>15</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="E4" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="F4" s="2">
+        <v>0</v>
+      </c>
+      <c r="G4" s="2">
+        <v>0</v>
+      </c>
+      <c r="H4" s="2">
+        <v>0</v>
+      </c>
+      <c r="I4" s="2">
+        <v>3</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="K4" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="G4" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C5" s="1" t="s">
-        <v>18</v>
-      </c>
       <c r="D5" s="2" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="E5" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="F5" s="2">
+        <v>2</v>
+      </c>
+      <c r="G5" s="2">
+        <v>1</v>
+      </c>
+      <c r="H5" s="2">
+        <v>1</v>
+      </c>
+      <c r="I5" s="2">
+        <v>4</v>
+      </c>
+      <c r="J5" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="G5" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="K5" s="2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="F6" s="2">
+        <v>0</v>
+      </c>
+      <c r="G6" s="2">
+        <v>2</v>
+      </c>
+      <c r="H6" s="2">
+        <v>6</v>
+      </c>
+      <c r="I6" s="2">
+        <v>-1</v>
+      </c>
+      <c r="J6" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C6" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="K6" s="2" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="F7" s="2">
+        <v>0</v>
+      </c>
+      <c r="G7" s="2">
+        <v>0</v>
+      </c>
+      <c r="H7" s="2">
+        <v>0</v>
+      </c>
+      <c r="I7" s="2">
+        <v>0</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="K7" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C7" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="F8" s="2">
+        <v>0</v>
+      </c>
+      <c r="G8" s="2">
+        <v>0</v>
+      </c>
+      <c r="H8" s="2">
+        <v>0</v>
+      </c>
+      <c r="I8" s="2">
+        <v>0</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="K8" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C8" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="F9" s="2">
+        <v>0</v>
+      </c>
+      <c r="G9" s="2">
+        <v>0</v>
+      </c>
+      <c r="H9" s="2">
+        <v>0</v>
+      </c>
+      <c r="I9" s="2">
+        <v>0</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="K9" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="C9" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="G10" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+        <v>55</v>
+      </c>
+      <c r="F10" s="2">
+        <v>2</v>
+      </c>
+      <c r="G10" s="2">
+        <v>3</v>
+      </c>
+      <c r="H10" s="2">
+        <v>2</v>
+      </c>
+      <c r="I10" s="2">
+        <v>5</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="K10" s="2" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>62</v>
+        <v>76</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="G11" s="1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+        <v>76</v>
+      </c>
+      <c r="F11" s="2">
+        <v>0</v>
+      </c>
+      <c r="G11" s="2">
+        <v>0</v>
+      </c>
+      <c r="H11" s="2">
+        <v>0</v>
+      </c>
+      <c r="I11" s="2">
+        <v>0</v>
+      </c>
+      <c r="K11" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="G12" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+        <v>40</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="F12" s="1">
+        <v>0</v>
+      </c>
+      <c r="G12" s="2">
+        <v>4</v>
+      </c>
+      <c r="H12" s="2">
+        <v>0</v>
+      </c>
+      <c r="I12" s="1">
+        <v>0</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="K12" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="G13" s="1" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+        <v>44</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="F13" s="1">
+        <v>0</v>
+      </c>
+      <c r="G13" s="2">
+        <v>5</v>
+      </c>
+      <c r="H13" s="2">
+        <v>0</v>
+      </c>
+      <c r="I13" s="1">
+        <v>0</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="K13" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="G14" s="1" t="s">
-        <v>54</v>
+        <v>48</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="F14" s="1">
+        <v>0</v>
+      </c>
+      <c r="G14" s="2">
+        <v>6</v>
+      </c>
+      <c r="H14" s="2">
+        <v>2</v>
+      </c>
+      <c r="I14" s="1">
+        <v>0</v>
+      </c>
+      <c r="J14" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="K14" s="1" t="s">
+        <v>50</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <conditionalFormatting sqref="A1:C1048576 F1:XFD1048576">
+  <phoneticPr fontId="1" type="noConversion"/>
+  <conditionalFormatting sqref="A1:C1048576 J1:XFD1048576">
     <cfRule type="cellIs" dxfId="1" priority="2" operator="notEqual">
       <formula>INDIRECT("Dummy_for_Comparison1!"&amp;ADDRESS(ROW(),COLUMN()))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D1:E1048576">
+  <conditionalFormatting sqref="D1:I1048576">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="notEqual">
       <formula>INDIRECT("Dummy_for_Comparison1!"&amp;ADDRESS(ROW(),COLUMN()))</formula>
     </cfRule>

--- a/tables/Info.xlsx
+++ b/tables/Info.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="84">
   <si>
     <t>序号</t>
   </si>
@@ -224,56 +224,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>6_4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>6_0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0_1|1_1|2_1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0_-1|1_-1|2_-1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>0</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>_1</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>0</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>_-3</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>3_2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -383,31 +333,39 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>拥有数值：0速度，1力量，2神志，3知识</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主动效果数值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>skillNum</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>人物的力量Might及神志Sanity上升1个级别。若人物失去这狗的伴随，其力量Might及神志Sanity下降1个级别。在玩家回合中，人物可差这动物走往最多6格外的一个房间，并随即返回人物身边。其间这动物可捡拾/携带/丢弃1件物件。这动物不可使用单向的通道。敌对的人物/怪物不会对牠的移动构成妨碍。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主动效果（如果需要考验，则考验决定是否可使用）：0无主动，1看牌堆，选择N张置顶，2用狗，3用面具，4以神志攻击，5物理转精神，6力量攻击加成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>当玩家使用这面具时，以神志Sanity进行能力考验。骰数总和等于或大于4，人物可把面具带上/除下。只有先把面具带上后，玩家方可除下面具。若玩家带上这面具，知识Knowledge上升2个级别，神志Sanity则下降2个级别。若玩家除下这面具，知识Knowledge下降2个级别，神志Sanity则上升2个级别。骰数总和是0至3，这回合人物无法带上或除下面具。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0_0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0_0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>当玩家使用水晶球时，依知识Knowledge进行能力考验。骰数总和等于或大于4，人物窥探出未来。玩家可检查物品牌Item card或事件牌Event card的牌叠，从中抽起1张咭牌放在一旁。重新将牌叠洗混后，再把抽起的咭牌放回牌叠顶。骰数总和是1至3，人物只觉眼花撩乱。人物的神志Sanity下降1个级别。骰数总和是0，人物看到地狱景况。人物的神志Sanity下降2个级别。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>拥有数值：0速度，1力量，2神志，3知识</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>主动效果数值</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>skillNum</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>人物的力量Might及神志Sanity上升1个级别。若人物失去这狗的伴随，其力量Might及神志Sanity下降1个级别。在玩家回合中，人物可差这动物走往最多6格外的一个房间，并随即返回人物身边。其间这动物可捡拾/携带/丢弃1件物件。这动物不可使用单向的通道。敌对的人物/怪物不会对牠的移动构成妨碍。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>当玩家使用这面具时，以神志Sanity进行能力考验。骰数总和等于或大于4，人物可把面具带上/除下。只有先把面具带上后，玩家方可除下面具。若玩家带上这面具，知识Knowledge上升2个级别，神志Sanity则下降2个级别。若玩家除下这面具，知识Knowledge下降2个级别，神志Sanity则上升2个级别。骰数总和是0至3，这回合人物无法带上或除下面具。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>主动效果（如果需要考验，则考验决定是否可使用）：0无主动，1看牌堆，选择N张置顶，2用狗，3用面具，4以神志攻击，5物理转精神，6力量攻击加成</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -765,7 +723,7 @@
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K8" sqref="K8"/>
+      <selection pane="bottomLeft" activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -789,22 +747,22 @@
         <v>2</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>51</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>8</v>
@@ -830,16 +788,16 @@
         <v>53</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="J2" s="2" t="s">
         <v>9</v>
@@ -859,10 +817,10 @@
         <v>11</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="F3" s="2">
         <v>0</v>
@@ -894,10 +852,10 @@
         <v>15</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>56</v>
+        <v>82</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>57</v>
+        <v>82</v>
       </c>
       <c r="F4" s="2">
         <v>0</v>
@@ -912,10 +870,10 @@
         <v>3</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">
@@ -929,10 +887,10 @@
         <v>17</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>58</v>
+        <v>82</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>59</v>
+        <v>82</v>
       </c>
       <c r="F5" s="2">
         <v>2</v>
@@ -947,10 +905,10 @@
         <v>4</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.2">
@@ -964,10 +922,10 @@
         <v>19</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="F6" s="2">
         <v>0</v>
@@ -985,7 +943,7 @@
         <v>20</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.2">
@@ -999,10 +957,10 @@
         <v>22</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="F7" s="2">
         <v>0</v>
@@ -1034,10 +992,10 @@
         <v>26</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="F8" s="2">
         <v>0</v>
@@ -1069,10 +1027,10 @@
         <v>30</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="F9" s="2">
         <v>0</v>
@@ -1104,10 +1062,10 @@
         <v>34</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>54</v>
+        <v>81</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>55</v>
+        <v>81</v>
       </c>
       <c r="F10" s="2">
         <v>2</v>
@@ -1125,7 +1083,7 @@
         <v>35</v>
       </c>
       <c r="K10" s="2" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.2">
@@ -1139,10 +1097,10 @@
         <v>37</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="F11" s="2">
         <v>0</v>
@@ -1171,10 +1129,10 @@
         <v>40</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="F12" s="1">
         <v>0</v>
@@ -1206,10 +1164,10 @@
         <v>44</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="F13" s="1">
         <v>0</v>
@@ -1241,10 +1199,10 @@
         <v>48</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="F14" s="1">
         <v>0</v>
